--- a/Experiment_1/Experiment_1_Size_and_Correctness.xlsx
+++ b/Experiment_1/Experiment_1_Size_and_Correctness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\node\bpmn-chatbot-archive\Experiment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4C807-E401-4D13-BB57-C1967A78B5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DE9B5B-4C62-4DA8-B0B5-A92EBFC2F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13545" yWindow="1875" windowWidth="29475" windowHeight="17220" xr2:uid="{6922611A-31F7-4743-9E6A-9993706F4D4C}"/>
+    <workbookView xWindow="150" yWindow="510" windowWidth="33405" windowHeight="15210" activeTab="2" xr2:uid="{6922611A-31F7-4743-9E6A-9993706F4D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="BPMN-Chatbot" sheetId="1" r:id="rId1"/>
@@ -4376,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162107A7-88B0-4759-8106-EF0C7D4BFCF8}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5543,8 +5543,8 @@
         <v>5</v>
       </c>
       <c r="C29" s="3">
-        <f>(F2+F9+F13)/3</f>
-        <v>1</v>
+        <f>(F2+F9+F16)/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D29">
         <f>(G2+G9+G16)/3</f>
@@ -5582,8 +5582,8 @@
         <v>8</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <f>(F5+F12+F19)/3</f>
+        <v>1</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
@@ -5648,7 +5648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDB8E63-B426-40E6-8513-38ABCF588E37}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -6462,7 +6462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF11028E-AB36-40C8-85D5-F9075F22C811}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>

--- a/Experiment_1/Experiment_1_Size_and_Correctness.xlsx
+++ b/Experiment_1/Experiment_1_Size_and_Correctness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\node\bpmn-chatbot-archive\Experiment_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DE9B5B-4C62-4DA8-B0B5-A92EBFC2F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EEA591-4785-4CFD-A317-03536FFCA763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="510" windowWidth="33405" windowHeight="15210" activeTab="2" xr2:uid="{6922611A-31F7-4743-9E6A-9993706F4D4C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{6922611A-31F7-4743-9E6A-9993706F4D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="BPMN-Chatbot" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="52">
   <si>
     <t>RunID</t>
   </si>
@@ -165,6 +165,36 @@
   </si>
   <si>
     <t>85.71</t>
+  </si>
+  <si>
+    <t>Per Case</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>avg out</t>
+  </si>
+  <si>
+    <t>total out</t>
+  </si>
+  <si>
+    <t>avg in</t>
+  </si>
+  <si>
+    <t>total in</t>
+  </si>
+  <si>
+    <t>per cae</t>
+  </si>
+  <si>
+    <t>in tokens</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>out tokens</t>
   </si>
 </sst>
 </file>
@@ -396,25 +426,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>828</c:v>
+                  <c:v>913.33333333333326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>925</c:v>
+                  <c:v>1022.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>672</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>808</c:v>
+                  <c:v>765.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>645</c:v>
+                  <c:v>881.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>715</c:v>
+                  <c:v>682.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>641</c:v>
+                  <c:v>643.66666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,7 +556,7 @@
                   <c:v>11853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4564</c:v>
+                  <c:v>5578.2222222222226</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4537.333333333333</c:v>
@@ -977,6 +1007,160 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="7.6408787010506206E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6924716107852546E-17"/>
+                  <c:y val="1.5281757402101241E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.1461318051575861E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6924716107852546E-17"/>
+                  <c:y val="1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.1461318051575896E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6924716107852546E-17"/>
+                  <c:y val="1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1070,7 +1254,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>601</c:v>
+                  <c:v>600.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>697</c:v>
@@ -1082,7 +1266,7 @@
                   <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>528</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>527</c:v>
@@ -1226,7 +1410,7 @@
                   <c:v>11052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4349</c:v>
+                  <c:v>5315.4444444444453</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4348</c:v>
@@ -1268,6 +1452,160 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6924716107852546E-17"/>
+                  <c:y val="-1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-7.6408787010506206E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.1461318051576002E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6924716107852546E-17"/>
+                  <c:y val="-7.6408787010506206E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-7.6408787010506561E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0281973816717019E-3"/>
+                  <c:y val="-1.5281757402101241E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C42A-4049-A91B-843BCFAC2990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1282,7 +1620,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1702,6 +2040,160 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5323933617627723E-17"/>
+                  <c:y val="7.6408787010505512E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5323933617627723E-17"/>
+                  <c:y val="1.1461318051575896E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="3.8204393505252756E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1795,25 +2287,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>227</c:v>
+                  <c:v>312.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>228</c:v>
+                  <c:v>325.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>229</c:v>
+                  <c:v>186.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117</c:v>
+                  <c:v>177.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188</c:v>
+                  <c:v>155.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106</c:v>
+                  <c:v>108.66666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,6 +2341,50 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1560693641618497E-2"/>
+                  <c:y val="7.0040578978218872E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8535645472061657E-3"/>
+                  <c:y val="-7.6408787010506206E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1951,7 +2487,7 @@
                   <c:v>801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215</c:v>
+                  <c:v>262.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>189.33333333333334</c:v>
@@ -1993,6 +2529,160 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5323933617627723E-17"/>
+                  <c:y val="-1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5323933617627723E-17"/>
+                  <c:y val="-1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.1461318051576002E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5323933617627723E-17"/>
+                  <c:y val="-1.1461318051575931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.5281757402101241E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.9102196752626571E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F8BE-4A7C-94A7-7CA77395AD5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2007,7 +2697,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3984,16 +4674,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>230961</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>28911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335314</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>114636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4020,16 +4710,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>316265</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>28911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>723901</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525815</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>114636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4374,20 +5064,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162107A7-88B0-4759-8106-EF0C7D4BFCF8}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4431,7 +5121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>29</v>
       </c>
@@ -4482,7 +5172,7 @@
         <v>0.72292993630573243</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>30</v>
       </c>
@@ -4533,7 +5223,7 @@
         <v>0.51351351351351349</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>31</v>
       </c>
@@ -4584,7 +5274,7 @@
         <v>0.69480519480519476</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>32</v>
       </c>
@@ -4635,7 +5325,7 @@
         <v>1.3160919540229885</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>42</v>
       </c>
@@ -4643,7 +5333,8 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>528</v>
+        <f>+C13+C20</f>
+        <v>1056</v>
       </c>
       <c r="D6">
         <v>117</v>
@@ -4659,15 +5350,15 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>645</v>
+        <v>1173</v>
       </c>
       <c r="I6" s="3">
         <f>H6/ProMoAI!H6</f>
-        <v>0.14132340052585451</v>
+        <v>0.25701139351446101</v>
       </c>
       <c r="J6" s="3">
         <f>C6/ProMoAI!C6</f>
-        <v>0.12140722005058634</v>
+        <v>0.24281444010117267</v>
       </c>
       <c r="K6" s="3">
         <f>D6/ProMoAI!D6</f>
@@ -4675,18 +5366,18 @@
       </c>
       <c r="L6" s="3">
         <f>H6/patternR!F6</f>
-        <v>1.0950764006791172</v>
+        <v>1.9915110356536503</v>
       </c>
       <c r="M6" s="3">
         <f>C6/patternR!C6</f>
-        <v>1.3367088607594937</v>
+        <v>2.6734177215189874</v>
       </c>
       <c r="N6" s="3">
         <f>D6/patternR!D6</f>
         <v>0.60309278350515461</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>33</v>
       </c>
@@ -4737,7 +5428,7 @@
         <v>1.323943661971831</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>42</v>
       </c>
@@ -4788,7 +5479,7 @@
         <v>0.63855421686746983</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>34</v>
       </c>
@@ -4839,7 +5530,7 @@
         <v>1.3319148936170213</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>35</v>
       </c>
@@ -4890,7 +5581,7 @@
         <v>1.139751552795031</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>36</v>
       </c>
@@ -4941,7 +5632,7 @@
         <v>0.69312169312169314</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>37</v>
       </c>
@@ -4992,7 +5683,7 @@
         <v>0.60204081632653061</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>38</v>
       </c>
@@ -5043,7 +5734,7 @@
         <v>1.4383561643835616</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>39</v>
       </c>
@@ -5094,7 +5785,7 @@
         <v>0.35114503816793891</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>40</v>
       </c>
@@ -5145,7 +5836,7 @@
         <v>0.66867469879518071</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>44</v>
       </c>
@@ -5196,7 +5887,7 @@
         <v>0.95443645083932849</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>45</v>
       </c>
@@ -5247,7 +5938,7 @@
         <v>0.69454545454545458</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>46</v>
       </c>
@@ -5298,7 +5989,7 @@
         <v>1.5876777251184835</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>47</v>
       </c>
@@ -5349,7 +6040,7 @@
         <v>1.0761421319796953</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>48</v>
       </c>
@@ -5400,7 +6091,7 @@
         <v>0.94063926940639264</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>49</v>
       </c>
@@ -5451,7 +6142,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>50</v>
       </c>
@@ -5502,7 +6193,15 @@
         <v>0.5706806282722513</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <f>SUM(C2:C22)</f>
+        <v>12623</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D2:D22)</f>
+        <v>4372</v>
+      </c>
       <c r="F23">
         <f>SUM(F2:F22)</f>
         <v>20</v>
@@ -5511,14 +6210,18 @@
         <f>AVERAGE(G2:G22)</f>
         <v>2.0952380952380953</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F24">
         <f>F23/21</f>
         <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -5526,7 +6229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -5538,7 +6241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>5</v>
       </c>
@@ -5551,12 +6254,12 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:C35" si="1">(F3+F10+F14)/3</f>
+        <f t="shared" ref="C30:C35" si="1">(F3+F10+F17)/3</f>
         <v>1</v>
       </c>
       <c r="D30">
@@ -5564,7 +6267,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>7</v>
       </c>
@@ -5577,12 +6280,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3">
-        <f>(F5+F12+F19)/3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D32">
@@ -5590,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -5603,7 +6306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>9</v>
       </c>
@@ -5616,7 +6319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -5629,7 +6332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C36" s="3">
         <f>AVERAGE(C29:C35)</f>
         <v>0.95238095238095233</v>
@@ -5637,6 +6340,170 @@
       <c r="D36">
         <f>AVERAGE(D29:D35)</f>
         <v>2.0952380952380953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <f>(C2+C9+C16)</f>
+        <v>1802</v>
+      </c>
+      <c r="D39">
+        <f>C39/3</f>
+        <v>600.66666666666663</v>
+      </c>
+      <c r="E39">
+        <f>D2+D9+D16</f>
+        <v>938</v>
+      </c>
+      <c r="F39">
+        <f>E39/3</f>
+        <v>312.66666666666669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <f>C3+C10+C17</f>
+        <v>2091</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D45" si="3">C40/3</f>
+        <v>697</v>
+      </c>
+      <c r="E40">
+        <f>D3+D10+D17</f>
+        <v>977</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:F45" si="4">E40/3</f>
+        <v>325.66666666666669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <f>C4+C11+C18</f>
+        <v>1695</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>565</v>
+      </c>
+      <c r="E41">
+        <f>D4+D11+D18</f>
+        <v>573</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <f>C5+C12+C19</f>
+        <v>1737</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>579</v>
+      </c>
+      <c r="E42">
+        <f>D5+D12+D19</f>
+        <v>559</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>186.33333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <f>C6+C13+C20</f>
+        <v>2112</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>704</v>
+      </c>
+      <c r="E43">
+        <f>D6+D13+D20</f>
+        <v>533</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>177.66666666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <f>C21+C14+C7</f>
+        <v>1581</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>527</v>
+      </c>
+      <c r="E44">
+        <f>D14+D7+D21</f>
+        <v>466</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>155.33333333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <f>C22+C15+C8</f>
+        <v>1605</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>535</v>
+      </c>
+      <c r="E45">
+        <f>D22+D15+D8</f>
+        <v>326</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>108.66666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -5646,21 +6513,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDB8E63-B426-40E6-8513-38ABCF588E37}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.73046875" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5686,7 +6553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>45427</v>
       </c>
@@ -5715,7 +6582,7 @@
         <v>13402</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45428</v>
       </c>
@@ -5744,7 +6611,7 @@
         <v>18211.666666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45429</v>
       </c>
@@ -5773,7 +6640,7 @@
         <v>13325</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45432</v>
       </c>
@@ -5802,7 +6669,7 @@
         <v>11853</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45433</v>
       </c>
@@ -5831,7 +6698,7 @@
         <v>4564</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>45434</v>
       </c>
@@ -5860,7 +6727,7 @@
         <v>4537.333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>45435</v>
       </c>
@@ -5889,7 +6756,7 @@
         <v>4565.333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>45427</v>
       </c>
@@ -5918,7 +6785,7 @@
         <v>13402</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>45428</v>
       </c>
@@ -5947,7 +6814,7 @@
         <v>18211.666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>45429</v>
       </c>
@@ -5976,7 +6843,7 @@
         <v>13325</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>45432</v>
       </c>
@@ -6005,7 +6872,7 @@
         <v>11853</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>45433</v>
       </c>
@@ -6034,7 +6901,7 @@
         <v>6085.3333333333339</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>45434</v>
       </c>
@@ -6063,7 +6930,7 @@
         <v>4537.333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>45435</v>
       </c>
@@ -6092,7 +6959,7 @@
         <v>4565.333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>45427</v>
       </c>
@@ -6121,7 +6988,7 @@
         <v>13402</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>45428</v>
       </c>
@@ -6150,7 +7017,7 @@
         <v>18211.666666666664</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>45429</v>
       </c>
@@ -6179,7 +7046,7 @@
         <v>13325</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>45432</v>
       </c>
@@ -6208,7 +7075,7 @@
         <v>11853</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>45433</v>
       </c>
@@ -6237,7 +7104,7 @@
         <v>6085.3333333333339</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>45434</v>
       </c>
@@ -6266,7 +7133,7 @@
         <v>4537.333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>45435</v>
       </c>
@@ -6295,7 +7162,15 @@
         <v>4565.333333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <f>SUM(C2:C22)</f>
+        <v>196935.33333333331</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D2:D22)</f>
+        <v>17482.333333333332</v>
+      </c>
       <c r="F23">
         <f>SUM(F2:F22)</f>
         <v>18</v>
@@ -6305,13 +7180,18 @@
         <v>2.9047619047619047</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2">
-        <f>F23/21</f>
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <f>'BPMN-Chatbot'!C23/C23</f>
+        <v>6.4097182493068797E-2</v>
+      </c>
+      <c r="D24">
+        <f>'BPMN-Chatbot'!D23/D23</f>
+        <v>0.25008103418689343</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
         <v>36</v>
       </c>
@@ -6319,7 +7199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -6336,7 +7216,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>6</v>
       </c>
@@ -6353,7 +7233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -6370,7 +7250,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>8</v>
       </c>
@@ -6387,7 +7267,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -6404,7 +7284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>9</v>
       </c>
@@ -6421,7 +7301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>11</v>
       </c>
@@ -6438,7 +7318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D34" s="3">
         <f>AVERAGE(D27:D33)</f>
         <v>0.8571428571428571</v>
@@ -6448,9 +7328,170 @@
         <v>2.9047619047619051</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C44" si="13">C2+C9+C16</f>
+        <v>35465</v>
+      </c>
+      <c r="D38">
+        <f>C38/3</f>
+        <v>11821.666666666666</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E44" si="14">D2+D9+D16</f>
+        <v>4741</v>
+      </c>
+      <c r="F38">
+        <f>E38/3</f>
+        <v>1580.3333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="13"/>
+        <v>48527</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D44" si="15">C39/3</f>
+        <v>16175.666666666666</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="14"/>
+        <v>6108</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F44" si="16">E39/3</f>
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="13"/>
+        <v>37729</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="15"/>
+        <v>12576.333333333334</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="14"/>
+        <v>2246</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="16"/>
+        <v>748.66666666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="13"/>
+        <v>33156</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="15"/>
+        <v>11052</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="14"/>
+        <v>2403</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="16"/>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="13"/>
+        <v>15946.333333333336</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="15"/>
+        <v>5315.4444444444453</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="14"/>
+        <v>788.33333333333337</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="16"/>
+        <v>262.77777777777777</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="13"/>
+        <v>13044</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="15"/>
+        <v>4348</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="14"/>
+        <v>568</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="16"/>
+        <v>189.33333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="13"/>
+        <v>13068</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="15"/>
+        <v>4356</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="14"/>
+        <v>628</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="16"/>
+        <v>209.33333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -6460,15 +7501,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF11028E-AB36-40C8-85D5-F9075F22C811}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6494,7 +7535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -6518,7 +7559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -6542,7 +7583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -6566,7 +7607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -6590,7 +7631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -6614,7 +7655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -6638,7 +7679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -6662,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -6686,7 +7727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -6710,7 +7751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -6734,7 +7775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -6758,7 +7799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -6782,7 +7823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -6806,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -6830,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -6854,7 +7895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -6878,7 +7919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -6902,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -6926,7 +7967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -6950,7 +7991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -6974,7 +8015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -6998,7 +8039,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <f>SUM(C2:C22)</f>
+        <v>9303</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D2:D22)</f>
+        <v>5039</v>
+      </c>
       <c r="G23">
         <f>SUM(G2:G22)</f>
         <v>17</v>
@@ -7008,16 +8057,24 @@
         <v>2.5238095238095237</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>31</v>
+      </c>
+      <c r="C24">
+        <f>'BPMN-Chatbot'!C23/C23</f>
+        <v>1.3568741266258195</v>
+      </c>
+      <c r="D24">
+        <f>'BPMN-Chatbot'!D23/D23</f>
+        <v>0.86763246675927763</v>
       </c>
       <c r="G24" s="2">
         <f>G23/21</f>
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>5</v>
       </c>
@@ -7042,7 +8099,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -7067,7 +8124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>7</v>
       </c>
@@ -7092,7 +8149,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -7117,7 +8174,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>10</v>
       </c>
@@ -7142,7 +8199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -7167,7 +8224,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -7192,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C32">
         <f>SUM(C25:C31)</f>
         <v>3101</v>
@@ -7212,6 +8269,11 @@
       <c r="H32">
         <f>AVERAGE(H25:H31)</f>
         <v>2.5238095238095242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -7226,17 +8288,18 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="29" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -7247,7 +8310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7285,14 +8348,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>'BPMN-Chatbot'!B2</f>
         <v>1_2</v>
       </c>
       <c r="B3" s="4">
         <f>G3+L3</f>
-        <v>828</v>
+        <v>913.33333333333326</v>
       </c>
       <c r="C3" s="4">
         <f>H3+M3</f>
@@ -7307,11 +8370,11 @@
         <v>1_2</v>
       </c>
       <c r="G3" s="4">
-        <f>'BPMN-Chatbot'!C2</f>
-        <v>601</v>
+        <f>'BPMN-Chatbot'!D39</f>
+        <v>600.66666666666663</v>
       </c>
       <c r="H3" s="4">
-        <f>ProMoAI!C2</f>
+        <f>ProMoAI!D38</f>
         <v>11821.666666666666</v>
       </c>
       <c r="I3" s="4">
@@ -7323,11 +8386,11 @@
         <v>1_2</v>
       </c>
       <c r="L3" s="4">
-        <f>'BPMN-Chatbot'!D2</f>
-        <v>227</v>
+        <f>'BPMN-Chatbot'!F39</f>
+        <v>312.66666666666669</v>
       </c>
       <c r="M3" s="4">
-        <f>ProMoAI!D2</f>
+        <f>ProMoAI!F38</f>
         <v>1580.3333333333333</v>
       </c>
       <c r="N3" s="4">
@@ -7335,14 +8398,14 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>'BPMN-Chatbot'!B3</f>
         <v>1_3</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B9" si="0">G4+L4</f>
-        <v>925</v>
+        <v>1022.6666666666667</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:C10" si="1">H4+M4</f>
@@ -7357,11 +8420,11 @@
         <v>1_3</v>
       </c>
       <c r="G4" s="4">
-        <f>'BPMN-Chatbot'!C3</f>
+        <f>'BPMN-Chatbot'!D40</f>
         <v>697</v>
       </c>
       <c r="H4" s="4">
-        <f>ProMoAI!C3</f>
+        <f>ProMoAI!D39</f>
         <v>16175.666666666666</v>
       </c>
       <c r="I4" s="4">
@@ -7373,11 +8436,11 @@
         <v>1_3</v>
       </c>
       <c r="L4" s="4">
-        <f>'BPMN-Chatbot'!D3</f>
-        <v>228</v>
+        <f>'BPMN-Chatbot'!F40</f>
+        <v>325.66666666666669</v>
       </c>
       <c r="M4" s="4">
-        <f>ProMoAI!D3</f>
+        <f>ProMoAI!F39</f>
         <v>2036</v>
       </c>
       <c r="N4" s="4">
@@ -7385,14 +8448,14 @@
         <v>438.66666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>'BPMN-Chatbot'!B4</f>
         <v>3_3</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>672</v>
+        <v>756</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
@@ -7407,11 +8470,11 @@
         <v>3_3</v>
       </c>
       <c r="G5" s="4">
-        <f>'BPMN-Chatbot'!C4</f>
+        <f>'BPMN-Chatbot'!D41</f>
         <v>565</v>
       </c>
       <c r="H5" s="4">
-        <f>ProMoAI!C4</f>
+        <f>ProMoAI!D40</f>
         <v>12576.333333333334</v>
       </c>
       <c r="I5" s="4">
@@ -7423,11 +8486,11 @@
         <v>3_3</v>
       </c>
       <c r="L5" s="4">
-        <f>'BPMN-Chatbot'!D4</f>
-        <v>107</v>
+        <f>'BPMN-Chatbot'!F41</f>
+        <v>191</v>
       </c>
       <c r="M5" s="4">
-        <f>ProMoAI!D4</f>
+        <f>ProMoAI!F40</f>
         <v>748.66666666666663</v>
       </c>
       <c r="N5" s="4">
@@ -7435,14 +8498,14 @@
         <v>184.66666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>'BPMN-Chatbot'!B5</f>
         <v>5_2</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>765.33333333333337</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="1"/>
@@ -7457,11 +8520,11 @@
         <v>5_2</v>
       </c>
       <c r="G6" s="4">
-        <f>'BPMN-Chatbot'!C5</f>
+        <f>'BPMN-Chatbot'!D42</f>
         <v>579</v>
       </c>
       <c r="H6" s="4">
-        <f>ProMoAI!C5</f>
+        <f>ProMoAI!D41</f>
         <v>11052</v>
       </c>
       <c r="I6" s="4">
@@ -7473,11 +8536,11 @@
         <v>5_2</v>
       </c>
       <c r="L6" s="4">
-        <f>'BPMN-Chatbot'!D5</f>
-        <v>229</v>
+        <f>'BPMN-Chatbot'!F42</f>
+        <v>186.33333333333334</v>
       </c>
       <c r="M6" s="4">
-        <f>ProMoAI!D5</f>
+        <f>ProMoAI!F41</f>
         <v>801</v>
       </c>
       <c r="N6" s="4">
@@ -7485,18 +8548,18 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>'BPMN-Chatbot'!B6</f>
         <v>10_1</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>645</v>
+        <v>881.66666666666663</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="1"/>
-        <v>4564</v>
+        <v>5578.2222222222226</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="2"/>
@@ -7507,12 +8570,12 @@
         <v>10_1</v>
       </c>
       <c r="G7" s="4">
-        <f>'BPMN-Chatbot'!C6</f>
-        <v>528</v>
+        <f>'BPMN-Chatbot'!D43</f>
+        <v>704</v>
       </c>
       <c r="H7" s="4">
-        <f>ProMoAI!C6</f>
-        <v>4349</v>
+        <f>ProMoAI!D42</f>
+        <v>5315.4444444444453</v>
       </c>
       <c r="I7" s="4">
         <f>patternR!C29</f>
@@ -7523,26 +8586,26 @@
         <v>10_1</v>
       </c>
       <c r="L7" s="4">
-        <f>'BPMN-Chatbot'!D6</f>
-        <v>117</v>
+        <f>'BPMN-Chatbot'!F43</f>
+        <v>177.66666666666666</v>
       </c>
       <c r="M7" s="4">
-        <f>ProMoAI!D6</f>
-        <v>215</v>
+        <f>ProMoAI!F42</f>
+        <v>262.77777777777777</v>
       </c>
       <c r="N7" s="4">
         <f>patternR!D29</f>
         <v>186.33333333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>'BPMN-Chatbot'!B7</f>
         <v>10_6</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>715</v>
+        <v>682.33333333333337</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="1"/>
@@ -7557,11 +8620,11 @@
         <v>10_6</v>
       </c>
       <c r="G8" s="4">
-        <f>'BPMN-Chatbot'!C7</f>
+        <f>'BPMN-Chatbot'!D44</f>
         <v>527</v>
       </c>
       <c r="H8" s="4">
-        <f>ProMoAI!C7</f>
+        <f>ProMoAI!D43</f>
         <v>4348</v>
       </c>
       <c r="I8" s="4">
@@ -7573,11 +8636,11 @@
         <v>10_6</v>
       </c>
       <c r="L8" s="4">
-        <f>'BPMN-Chatbot'!D7</f>
-        <v>188</v>
+        <f>'BPMN-Chatbot'!F44</f>
+        <v>155.33333333333334</v>
       </c>
       <c r="M8" s="4">
-        <f>ProMoAI!D7</f>
+        <f>ProMoAI!F43</f>
         <v>189.33333333333334</v>
       </c>
       <c r="N8" s="4">
@@ -7585,14 +8648,14 @@
         <v>184.66666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f>'BPMN-Chatbot'!B8</f>
         <v>10_13</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>641</v>
+        <v>643.66666666666663</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="1"/>
@@ -7607,11 +8670,11 @@
         <v>10_13</v>
       </c>
       <c r="G9" s="4">
-        <f>'BPMN-Chatbot'!C8</f>
+        <f>'BPMN-Chatbot'!D45</f>
         <v>535</v>
       </c>
       <c r="H9" s="4">
-        <f>ProMoAI!C8</f>
+        <f>ProMoAI!D44</f>
         <v>4356</v>
       </c>
       <c r="I9" s="4">
@@ -7623,11 +8686,11 @@
         <v>10_13</v>
       </c>
       <c r="L9" s="4">
-        <f>'BPMN-Chatbot'!D8</f>
-        <v>106</v>
+        <f>'BPMN-Chatbot'!F45</f>
+        <v>108.66666666666667</v>
       </c>
       <c r="M9" s="4">
-        <f>ProMoAI!D8</f>
+        <f>ProMoAI!F44</f>
         <v>209.33333333333334</v>
       </c>
       <c r="N9" s="4">
@@ -7635,17 +8698,17 @@
         <v>174.33333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4">
         <f>SUM(B3:B9)</f>
-        <v>5234</v>
+        <v>5665</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="1"/>
-        <v>70458.333333333328</v>
+        <v>71472.555555555547</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="2"/>
@@ -7656,19 +8719,19 @@
         <v>16</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" ref="G10:M10" si="5">SUM(G3:G9)</f>
-        <v>4032</v>
+        <f>SUM(G3:G9)</f>
+        <v>4207.6666666666661</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="5"/>
-        <v>64678.666666666664</v>
+        <f>SUM(H3:H9)</f>
+        <v>65645.111111111109</v>
       </c>
       <c r="I10" s="4">
         <f>patternR!C32</f>
         <v>3101</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J10:L10" si="5">SUM(J3:J9)</f>
         <v>0</v>
       </c>
       <c r="K10" s="4">
@@ -7677,18 +8740,23 @@
       </c>
       <c r="L10" s="4">
         <f t="shared" si="5"/>
-        <v>1202</v>
+        <v>1457.3333333333335</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="5"/>
-        <v>5779.6666666666661</v>
+        <f>SUM(M3:M9)</f>
+        <v>5827.4444444444434</v>
       </c>
       <c r="N10" s="4">
         <f>patternR!D32</f>
         <v>1679.6666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -7696,7 +8764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -7705,27 +8773,27 @@
       </c>
       <c r="C35">
         <f>G10/H10</f>
-        <v>6.2338947411820486E-2</v>
+        <v>6.4097182493068783E-2</v>
       </c>
       <c r="D35">
         <f>1-C35</f>
-        <v>0.93766105258817956</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.93590281750693127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36">
         <f>G10/I10</f>
-        <v>1.3002257336343115</v>
+        <v>1.3568741266258195</v>
       </c>
       <c r="D36">
         <f>1-C36</f>
-        <v>-0.30022573363431149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.35687412662581952</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -7734,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -7743,24 +8811,24 @@
       </c>
       <c r="C38">
         <f>L10/M10</f>
-        <v>0.20797047119211029</v>
+        <v>0.25008103418689348</v>
       </c>
       <c r="D38">
         <f t="shared" si="6"/>
-        <v>0.79202952880788968</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.74991896581310646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>26</v>
       </c>
       <c r="C39">
         <f>L10/N10</f>
-        <v>0.71561817820996221</v>
+        <v>0.86763246675927763</v>
       </c>
       <c r="D39">
         <f t="shared" si="6"/>
-        <v>0.28438182179003779</v>
+        <v>0.13236753324072237</v>
       </c>
     </row>
   </sheetData>
